--- a/TradeGame/InputFiles/training-inputs.xlsx
+++ b/TradeGame/InputFiles/training-inputs.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lessley\repos\Vandy\AI\ldennington-5260-ai-project\TradeGame\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2215D9D9-1CDD-40F5-AE09-CC1B0D3BD2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E79CE3-E535-4020-A1BA-8D23B8A40486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{02C3EDB4-4004-4DAA-A219-DA6FA0963D36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="8" xr2:uid="{02C3EDB4-4004-4DAA-A219-DA6FA0963D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Set 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Set 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Set 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Set 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Set 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId2"/>
+    <sheet name="Set 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Set 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Set 3" sheetId="4" r:id="rId5"/>
+    <sheet name="Set 4" sheetId="5" r:id="rId6"/>
+    <sheet name="Set 5" sheetId="6" r:id="rId7"/>
+    <sheet name="Set 6" sheetId="7" r:id="rId8"/>
+    <sheet name="Test Set" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="33">
   <si>
     <t>Set 1</t>
   </si>
@@ -49,9 +52,6 @@
   </si>
   <si>
     <t>Beam Size</t>
-  </si>
-  <si>
-    <t>Run Time</t>
   </si>
   <si>
     <t>Set 2</t>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Set 5</t>
-  </si>
-  <si>
-    <t>No positive enforcement</t>
-  </si>
-  <si>
-    <t>Positive enforcement</t>
   </si>
   <si>
     <t>Country</t>
@@ -140,12 +134,21 @@
   <si>
     <t>Sif</t>
   </si>
+  <si>
+    <t>Set 6</t>
+  </si>
+  <si>
+    <t>Set 7</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,14 +167,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -198,14 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54035B51-288C-4415-880F-23B66681F309}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23:S34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,1090 +529,873 @@
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:27" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2.45758899999782</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1.6246683000063</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>2.2294001999835</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1.5170477000065099</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>1.57091329997638</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>1.5444499999866801</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>1.53223110001999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>1.6370588999998199</v>
+      </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
       </c>
+      <c r="G5">
+        <v>1.5745067000098001</v>
+      </c>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3">
         <v>5</v>
       </c>
+      <c r="K5">
+        <v>1.5455742999911299</v>
+      </c>
       <c r="M5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N5" s="3">
         <v>5</v>
       </c>
+      <c r="O5">
+        <v>1.69090049999067</v>
+      </c>
       <c r="Q5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <v>1.6057833999511699</v>
+      </c>
+      <c r="U5" s="3">
+        <v>10</v>
+      </c>
+      <c r="V5" s="3">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>1.59740909998072</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>1.70232439995743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1.7096436999854601</v>
+      </c>
       <c r="E6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
       </c>
+      <c r="G6">
+        <v>1.70305369998095</v>
+      </c>
       <c r="I6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
       </c>
+      <c r="K6">
+        <v>1.7211111999931701</v>
+      </c>
       <c r="M6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
       </c>
+      <c r="O6">
+        <v>1.74947189999511</v>
+      </c>
       <c r="Q6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S6">
+        <v>1.59545580000849</v>
+      </c>
+      <c r="U6" s="3">
+        <v>15</v>
+      </c>
+      <c r="V6" s="3">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>1.57921330002136</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>1.5393716000253299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.8756614000012599</v>
+      </c>
       <c r="E7" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>1.6468505999946501</v>
+      </c>
       <c r="I7" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3">
         <v>5</v>
       </c>
+      <c r="K7">
+        <v>1.49752330000046</v>
+      </c>
       <c r="M7" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3">
         <v>5</v>
       </c>
+      <c r="O7">
+        <v>1.9710580999962899</v>
+      </c>
       <c r="Q7" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S7">
+        <v>1.58373940002638</v>
+      </c>
+      <c r="U7" s="3">
+        <v>20</v>
+      </c>
+      <c r="V7" s="3">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>1.66503069997997</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>1.8347798000322599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1.6313718000019399</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1.57189059999655</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1.57658759999321</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1.5178903999913</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>1.64452170004369</v>
+      </c>
+      <c r="U8" s="3">
+        <v>5</v>
+      </c>
+      <c r="V8" s="3">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>1.64726240001618</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>1.66765420004958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3.4394870999967599</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1.88125589999253</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1.79081830001086</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>2.3273534000036298</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>10</v>
+      </c>
+      <c r="R9" s="3">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>2.2390395000111298</v>
+      </c>
+      <c r="U9" s="3">
+        <v>10</v>
+      </c>
+      <c r="V9" s="3">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>1.8315237999777301</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>1.8715594999957801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>7.0667581000016</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2.1719617999915499</v>
+      </c>
+      <c r="I10" s="3">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1.83854110000538</v>
+      </c>
+      <c r="M10" s="3">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>5.4156798999756504</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>15</v>
+      </c>
+      <c r="R10" s="3">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>5.6154921000124798</v>
+      </c>
+      <c r="U10" s="3">
+        <v>15</v>
+      </c>
+      <c r="V10" s="3">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>2.44132990000071</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>1.85478669998701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>14.428391699999301</v>
+      </c>
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>2.45837379997828</v>
+      </c>
+      <c r="I11" s="3">
         <v>20</v>
       </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1.7570598000020199</v>
+      </c>
+      <c r="M11" s="3">
         <v>20</v>
       </c>
-      <c r="N8" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="N11" s="3">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>14.452365299977799</v>
+      </c>
+      <c r="Q11" s="3">
         <v>20</v>
       </c>
-      <c r="R8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10</v>
-      </c>
-      <c r="M9" s="3">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10</v>
-      </c>
-      <c r="M10" s="3">
-        <v>10</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>10</v>
-      </c>
-      <c r="R10" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="M11" s="3">
-        <v>15</v>
-      </c>
-      <c r="N11" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>15</v>
-      </c>
       <c r="R11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S11">
+        <v>9.8452673000283504</v>
+      </c>
+      <c r="U11" s="3">
+        <v>20</v>
+      </c>
+      <c r="V11" s="3">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>5.6321767999906998</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>1.76905689999694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1.67597930002375</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>1.6092128000163901</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>1.6296363000001199</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>1.54322039999533</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>1.78028180002002</v>
+      </c>
+      <c r="U12" s="3">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>1.6982905000331801</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA12">
+        <v>1.80317359999753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>4.4410475999757102</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2.15984890001709</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>2.1717530000023499</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>4.9911985000071502</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>10</v>
+      </c>
+      <c r="R13" s="3">
+        <v>15</v>
+      </c>
+      <c r="S13">
+        <v>5.1970274000195698</v>
+      </c>
+      <c r="U13" s="3">
+        <v>10</v>
+      </c>
+      <c r="V13" s="3">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>2.0487531999824502</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA13">
+        <v>2.8823995999991801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>35.625088100001399</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>3.4061672000097998</v>
+      </c>
+      <c r="I14" s="3">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>2.4244217000086699</v>
+      </c>
+      <c r="M14" s="3">
+        <v>15</v>
+      </c>
+      <c r="N14" s="3">
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>21.630139699991499</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>15</v>
+      </c>
+      <c r="R14" s="3">
+        <v>15</v>
+      </c>
+      <c r="S14">
+        <v>25.073006600025099</v>
+      </c>
+      <c r="U14" s="3">
+        <v>15</v>
+      </c>
+      <c r="V14" s="3">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>5.5407418999820903</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA14">
+        <v>5.6489033999969198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>181.99350939999499</v>
+      </c>
+      <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>4.8690831999992898</v>
+      </c>
+      <c r="I15" s="3">
         <v>20</v>
       </c>
-      <c r="J12" s="3">
-        <v>10</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="J15" s="3">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>2.6236760000174399</v>
+      </c>
+      <c r="M15" s="3">
         <v>20</v>
       </c>
-      <c r="N12" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="N15" s="3">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>66.262239500007098</v>
+      </c>
+      <c r="Q15" s="3">
         <v>20</v>
       </c>
-      <c r="R12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>15</v>
-      </c>
-      <c r="M13" s="3">
-        <v>5</v>
-      </c>
-      <c r="N13" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>5</v>
-      </c>
-      <c r="R13" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>15</v>
-      </c>
-      <c r="M14" s="3">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3">
-        <v>15</v>
-      </c>
-      <c r="J15" s="3">
-        <v>15</v>
-      </c>
-      <c r="M15" s="3">
-        <v>15</v>
-      </c>
-      <c r="N15" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>15</v>
-      </c>
       <c r="R15" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="S15">
+        <v>77.200112999998893</v>
+      </c>
+      <c r="U15" s="3">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="V15" s="3">
+        <v>15</v>
+      </c>
+      <c r="W15">
+        <v>13.461011899984401</v>
+      </c>
+      <c r="Y15" s="3">
         <v>20</v>
       </c>
-      <c r="F16" s="3">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3">
-        <v>20</v>
-      </c>
-      <c r="J16" s="3">
-        <v>15</v>
-      </c>
-      <c r="M16" s="3">
-        <v>20</v>
-      </c>
-      <c r="N16" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>20</v>
-      </c>
-      <c r="R16" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="26" x14ac:dyDescent="0.6">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>1.6574693000002201</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <v>2.3977069999964402</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>1.7432977000134899</v>
-      </c>
-      <c r="M23" s="3">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>1.6397085000062299</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
-        <v>5</v>
-      </c>
-      <c r="S23">
-        <v>1.6313194999820499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>1.74474789999658</v>
-      </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>1.79270839999662</v>
-      </c>
-      <c r="I24" s="3">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>1.61775999999372</v>
-      </c>
-      <c r="M24" s="3">
-        <v>10</v>
-      </c>
-      <c r="N24" s="3">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>1.7423567000078</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>10</v>
-      </c>
-      <c r="R24" s="3">
-        <v>5</v>
-      </c>
-      <c r="S24">
-        <v>1.7381489999825099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>1.81423819999326</v>
-      </c>
-      <c r="E25" s="3">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>1.7061924999870799</v>
-      </c>
-      <c r="I25" s="3">
-        <v>15</v>
-      </c>
-      <c r="J25" s="3">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>1.65921519999392</v>
-      </c>
-      <c r="M25" s="3">
-        <v>15</v>
-      </c>
-      <c r="N25" s="3">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>1.8661262000095999</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>15</v>
-      </c>
-      <c r="R25" s="3">
-        <v>5</v>
-      </c>
-      <c r="S25">
-        <v>1.7794966000074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1.9263591000053499</v>
-      </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>1.7783203000144501</v>
-      </c>
-      <c r="I26" s="3">
-        <v>20</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>1.65420429999358</v>
-      </c>
-      <c r="M26" s="3">
-        <v>20</v>
-      </c>
-      <c r="N26" s="3">
-        <v>5</v>
-      </c>
-      <c r="O26">
-        <v>2.0772575000009899</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>20</v>
-      </c>
-      <c r="R26" s="3">
-        <v>5</v>
-      </c>
-      <c r="S26">
-        <v>1.8858028000104201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>1.68629650000366</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>1.7810682000126601</v>
-      </c>
-      <c r="I27" s="3">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
-        <v>10</v>
-      </c>
-      <c r="K27">
-        <v>1.6303642000129901</v>
-      </c>
-      <c r="M27" s="3">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
-        <v>10</v>
-      </c>
-      <c r="O27">
-        <v>1.68235359998652</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
-        <v>10</v>
-      </c>
-      <c r="S27">
-        <v>1.95805509999627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>2.7811931000032901</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>2.0040093999996298</v>
-      </c>
-      <c r="I28" s="3">
-        <v>10</v>
-      </c>
-      <c r="J28" s="3">
-        <v>10</v>
-      </c>
-      <c r="K28">
-        <v>1.793534299999</v>
-      </c>
-      <c r="M28" s="3">
-        <v>10</v>
-      </c>
-      <c r="N28" s="3">
-        <v>10</v>
-      </c>
-      <c r="O28">
-        <v>2.5925052000093198</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>10</v>
-      </c>
-      <c r="R28" s="3">
-        <v>10</v>
-      </c>
-      <c r="S28">
-        <v>2.3570387999934601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>6.7531747999892104</v>
-      </c>
-      <c r="E29" s="3">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>2.36076890002004</v>
-      </c>
-      <c r="I29" s="3">
-        <v>15</v>
-      </c>
-      <c r="J29" s="3">
-        <v>10</v>
-      </c>
-      <c r="K29">
-        <v>1.8628748000191899</v>
-      </c>
-      <c r="M29" s="3">
-        <v>15</v>
-      </c>
-      <c r="N29" s="3">
-        <v>10</v>
-      </c>
-      <c r="O29">
-        <v>5.4481942999991499</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>15</v>
-      </c>
-      <c r="R29" s="3">
-        <v>10</v>
-      </c>
-      <c r="S29">
-        <v>5.6644816999905698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>14.869699699978799</v>
-      </c>
-      <c r="E30" s="3">
-        <v>20</v>
-      </c>
-      <c r="F30" s="3">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>2.52904530000523</v>
-      </c>
-      <c r="I30" s="3">
-        <v>20</v>
-      </c>
-      <c r="J30" s="3">
-        <v>10</v>
-      </c>
-      <c r="K30">
-        <v>1.93216259998735</v>
-      </c>
-      <c r="M30" s="3">
-        <v>20</v>
-      </c>
-      <c r="N30" s="3">
-        <v>10</v>
-      </c>
-      <c r="O30">
-        <v>16.277490800013702</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>20</v>
-      </c>
-      <c r="R30" s="3">
-        <v>10</v>
-      </c>
-      <c r="S30">
-        <v>9.6908603000047098</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>1.8119756999949399</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3">
-        <v>15</v>
-      </c>
-      <c r="G31">
-        <v>1.68172250001225</v>
-      </c>
-      <c r="I31" s="3">
-        <v>5</v>
-      </c>
-      <c r="J31" s="3">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <v>1.75983240001369</v>
-      </c>
-      <c r="M31" s="3">
-        <v>5</v>
-      </c>
-      <c r="N31" s="3">
-        <v>15</v>
-      </c>
-      <c r="O31">
-        <v>1.6757910999876899</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>5</v>
-      </c>
-      <c r="R31" s="3">
-        <v>15</v>
-      </c>
-      <c r="S31">
-        <v>1.9826751000073199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>4.5116240000061199</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3">
-        <v>15</v>
-      </c>
-      <c r="G32">
-        <v>2.1885993000178101</v>
-      </c>
-      <c r="I32" s="3">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3">
-        <v>15</v>
-      </c>
-      <c r="K32">
-        <v>2.2173873000137898</v>
-      </c>
-      <c r="M32" s="3">
-        <v>10</v>
-      </c>
-      <c r="N32" s="3">
-        <v>15</v>
-      </c>
-      <c r="O32">
-        <v>6.6589332000003196</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>10</v>
-      </c>
-      <c r="R32" s="3">
-        <v>15</v>
-      </c>
-      <c r="S32">
-        <v>4.9771308999916002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>15</v>
-      </c>
-      <c r="B33" s="3">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>35.212418000009997</v>
-      </c>
-      <c r="E33" s="3">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>15</v>
-      </c>
-      <c r="G33">
-        <v>3.4416858000040502</v>
-      </c>
-      <c r="I33" s="3">
-        <v>15</v>
-      </c>
-      <c r="J33" s="3">
-        <v>15</v>
-      </c>
-      <c r="K33">
-        <v>2.70507569998153</v>
-      </c>
-      <c r="M33" s="3">
-        <v>15</v>
-      </c>
-      <c r="N33" s="3">
-        <v>15</v>
-      </c>
-      <c r="O33">
-        <v>24.737348299997301</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>15</v>
-      </c>
-      <c r="R33" s="3">
-        <v>15</v>
-      </c>
-      <c r="S33">
-        <v>26.980072300008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>20</v>
-      </c>
-      <c r="B34" s="3">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>181.91175869997801</v>
-      </c>
-      <c r="E34" s="3">
-        <v>20</v>
-      </c>
-      <c r="F34" s="3">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>5.0892254000063897</v>
-      </c>
-      <c r="I34" s="3">
-        <v>20</v>
-      </c>
-      <c r="J34" s="3">
-        <v>15</v>
-      </c>
-      <c r="K34">
-        <v>2.7725269999937101</v>
-      </c>
-      <c r="M34" s="3">
-        <v>20</v>
-      </c>
-      <c r="N34" s="3">
-        <v>15</v>
-      </c>
-      <c r="O34">
-        <v>68.207504999998406</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>20</v>
-      </c>
-      <c r="R34" s="3">
-        <v>15</v>
-      </c>
-      <c r="S34">
-        <v>78.793487000017194</v>
+      <c r="Z15" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA15">
+        <v>9.4798750999616406</v>
       </c>
     </row>
   </sheetData>
@@ -1628,12 +1405,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73923944-8C3C-4B10-AE91-2C3C64680E6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798285EE-2372-4089-A446-FE287D533771}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1643,65 +1430,65 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
         <v>150</v>
       </c>
       <c r="C2">
@@ -1728,13 +1515,13 @@
       <c r="J2">
         <v>314</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>68</v>
       </c>
       <c r="L2">
         <v>351</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>2</v>
       </c>
       <c r="N2">
@@ -1755,9 +1542,9 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
         <v>10</v>
       </c>
       <c r="C3">
@@ -1784,13 +1571,13 @@
       <c r="J3">
         <v>367</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>40</v>
       </c>
       <c r="L3">
         <v>62</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>39</v>
       </c>
       <c r="N3">
@@ -1811,9 +1598,9 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
         <v>150</v>
       </c>
       <c r="C4">
@@ -1840,13 +1627,13 @@
       <c r="J4">
         <v>63</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>98</v>
       </c>
       <c r="L4">
         <v>383</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>79</v>
       </c>
       <c r="N4">
@@ -1867,9 +1654,9 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
         <v>188</v>
       </c>
       <c r="C5">
@@ -1896,13 +1683,13 @@
       <c r="J5">
         <v>336</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>61</v>
       </c>
       <c r="L5">
         <v>175</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>34</v>
       </c>
       <c r="N5">
@@ -1923,9 +1710,9 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
         <v>64</v>
       </c>
       <c r="C6">
@@ -1952,13 +1739,13 @@
       <c r="J6">
         <v>480</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>81</v>
       </c>
       <c r="L6">
         <v>464</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>72</v>
       </c>
       <c r="N6">
@@ -1982,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FFE458-1287-4DCA-BE5B-113192963770}">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -1998,65 +1785,65 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
         <v>107</v>
       </c>
       <c r="C2">
@@ -2083,13 +1870,13 @@
       <c r="J2">
         <v>312</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>77</v>
       </c>
       <c r="L2">
         <v>175</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>54</v>
       </c>
       <c r="N2">
@@ -2110,9 +1897,9 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
         <v>54</v>
       </c>
       <c r="C3">
@@ -2139,13 +1926,13 @@
       <c r="J3">
         <v>204</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>50</v>
       </c>
       <c r="L3">
         <v>210</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>18</v>
       </c>
       <c r="N3">
@@ -2166,9 +1953,9 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
         <v>138</v>
       </c>
       <c r="C4">
@@ -2195,13 +1982,13 @@
       <c r="J4">
         <v>162</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>19</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>76</v>
       </c>
       <c r="N4">
@@ -2222,9 +2009,9 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
         <v>49</v>
       </c>
       <c r="C5">
@@ -2251,13 +2038,13 @@
       <c r="J5">
         <v>136</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>4</v>
       </c>
       <c r="L5">
         <v>408</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>91</v>
       </c>
       <c r="N5">
@@ -2278,9 +2065,9 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
         <v>150</v>
       </c>
       <c r="C6">
@@ -2307,13 +2094,13 @@
       <c r="J6">
         <v>167</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>28</v>
       </c>
       <c r="L6">
         <v>437</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>54</v>
       </c>
       <c r="N6">
@@ -2337,7 +2124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7C09DC-A48F-4A2C-9FB5-FAB330AF9C2F}">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -2357,65 +2144,65 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
         <v>125</v>
       </c>
       <c r="C2">
@@ -2442,13 +2229,13 @@
       <c r="J2">
         <v>193</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>93</v>
       </c>
       <c r="L2">
         <v>235</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>14</v>
       </c>
       <c r="N2">
@@ -2469,9 +2256,9 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
         <v>79</v>
       </c>
       <c r="C3">
@@ -2498,13 +2285,13 @@
       <c r="J3">
         <v>220</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>15</v>
       </c>
       <c r="L3">
         <v>234</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>80</v>
       </c>
       <c r="N3">
@@ -2525,9 +2312,9 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
         <v>162</v>
       </c>
       <c r="C4">
@@ -2554,13 +2341,13 @@
       <c r="J4">
         <v>20</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>11</v>
       </c>
       <c r="L4">
         <v>61</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>33</v>
       </c>
       <c r="N4">
@@ -2581,9 +2368,9 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
         <v>195</v>
       </c>
       <c r="C5">
@@ -2610,13 +2397,13 @@
       <c r="J5">
         <v>443</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>75</v>
       </c>
       <c r="L5">
         <v>212</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>98</v>
       </c>
       <c r="N5">
@@ -2637,9 +2424,9 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
         <v>132</v>
       </c>
       <c r="C6">
@@ -2666,13 +2453,13 @@
       <c r="J6">
         <v>419</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>87</v>
       </c>
       <c r="L6">
         <v>202</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>12</v>
       </c>
       <c r="N6">
@@ -2696,7 +2483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB9A3E9-7C2C-439D-B41B-85E897ADA7CC}">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -2712,65 +2499,65 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
         <v>26</v>
       </c>
       <c r="C2">
@@ -2797,13 +2584,13 @@
       <c r="J2">
         <v>190</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>34</v>
       </c>
       <c r="L2">
         <v>132</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>91</v>
       </c>
       <c r="N2">
@@ -2824,9 +2611,9 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
         <v>67</v>
       </c>
       <c r="C3">
@@ -2853,13 +2640,13 @@
       <c r="J3">
         <v>17</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>10</v>
       </c>
       <c r="L3">
         <v>17</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>86</v>
       </c>
       <c r="N3">
@@ -2880,9 +2667,9 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
         <v>99</v>
       </c>
       <c r="C4">
@@ -2909,13 +2696,13 @@
       <c r="J4">
         <v>168</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>62</v>
       </c>
       <c r="L4">
         <v>276</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>61</v>
       </c>
       <c r="N4">
@@ -2936,9 +2723,9 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
         <v>144</v>
       </c>
       <c r="C5">
@@ -2965,13 +2752,13 @@
       <c r="J5">
         <v>105</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>63</v>
       </c>
       <c r="L5">
         <v>273</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>5</v>
       </c>
       <c r="N5">
@@ -2992,9 +2779,9 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
         <v>26</v>
       </c>
       <c r="C6">
@@ -3021,13 +2808,13 @@
       <c r="J6">
         <v>78</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>68</v>
       </c>
       <c r="L6">
         <v>214</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>6</v>
       </c>
       <c r="N6">
@@ -3051,7 +2838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3EFC7A-56B1-4726-803E-096D8E4E4D51}">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -3076,63 +2863,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>110</v>
@@ -3188,7 +2975,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>82</v>
@@ -3244,7 +3031,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>76</v>
@@ -3300,7 +3087,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3356,7 +3143,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>69</v>
@@ -3414,4 +3201,714 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B279CC-6347-4F8F-B7EB-C952646E3FD3}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>495</v>
+      </c>
+      <c r="D2">
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <v>392</v>
+      </c>
+      <c r="F2">
+        <v>402</v>
+      </c>
+      <c r="G2">
+        <v>372</v>
+      </c>
+      <c r="H2">
+        <v>309</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>76</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>203</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>337</v>
+      </c>
+      <c r="O2">
+        <v>179</v>
+      </c>
+      <c r="P2">
+        <v>195</v>
+      </c>
+      <c r="Q2">
+        <v>127</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>414</v>
+      </c>
+      <c r="D3">
+        <v>364</v>
+      </c>
+      <c r="E3">
+        <v>452</v>
+      </c>
+      <c r="F3">
+        <v>168</v>
+      </c>
+      <c r="G3">
+        <v>440</v>
+      </c>
+      <c r="H3">
+        <v>413</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>233</v>
+      </c>
+      <c r="K3">
+        <v>81</v>
+      </c>
+      <c r="L3">
+        <v>182</v>
+      </c>
+      <c r="M3">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>147</v>
+      </c>
+      <c r="O3">
+        <v>467</v>
+      </c>
+      <c r="P3">
+        <v>161</v>
+      </c>
+      <c r="Q3">
+        <v>334</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>409</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>218</v>
+      </c>
+      <c r="F4">
+        <v>288</v>
+      </c>
+      <c r="G4">
+        <v>302</v>
+      </c>
+      <c r="H4">
+        <v>292</v>
+      </c>
+      <c r="I4">
+        <v>53</v>
+      </c>
+      <c r="J4">
+        <v>284</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>81</v>
+      </c>
+      <c r="M4">
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <v>227</v>
+      </c>
+      <c r="O4">
+        <v>147</v>
+      </c>
+      <c r="P4">
+        <v>439</v>
+      </c>
+      <c r="Q4">
+        <v>466</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>488</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>243</v>
+      </c>
+      <c r="H5">
+        <v>128</v>
+      </c>
+      <c r="I5">
+        <v>84</v>
+      </c>
+      <c r="J5">
+        <v>473</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="L5">
+        <v>176</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>228</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>155</v>
+      </c>
+      <c r="Q5">
+        <v>392</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>484</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>487</v>
+      </c>
+      <c r="F6">
+        <v>269</v>
+      </c>
+      <c r="G6">
+        <v>430</v>
+      </c>
+      <c r="H6">
+        <v>472</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>77</v>
+      </c>
+      <c r="L6">
+        <v>389</v>
+      </c>
+      <c r="M6">
+        <v>72</v>
+      </c>
+      <c r="N6">
+        <v>412</v>
+      </c>
+      <c r="O6">
+        <v>383</v>
+      </c>
+      <c r="P6">
+        <v>142</v>
+      </c>
+      <c r="Q6">
+        <v>384</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C418B1-69FB-4A50-AA41-C6485CED65EA}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>376</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>112</v>
+      </c>
+      <c r="H2">
+        <v>112</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>491</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
+      </c>
+      <c r="L2">
+        <v>405</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <v>92</v>
+      </c>
+      <c r="O2">
+        <v>118</v>
+      </c>
+      <c r="P2">
+        <v>187</v>
+      </c>
+      <c r="Q2">
+        <v>202</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>404</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>272</v>
+      </c>
+      <c r="F3">
+        <v>485</v>
+      </c>
+      <c r="G3">
+        <v>305</v>
+      </c>
+      <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>283</v>
+      </c>
+      <c r="K3">
+        <v>84</v>
+      </c>
+      <c r="L3">
+        <v>206</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>124</v>
+      </c>
+      <c r="O3">
+        <v>291</v>
+      </c>
+      <c r="P3">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>143</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>283</v>
+      </c>
+      <c r="D4">
+        <v>201</v>
+      </c>
+      <c r="E4">
+        <v>181</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>146</v>
+      </c>
+      <c r="H4">
+        <v>427</v>
+      </c>
+      <c r="I4">
+        <v>96</v>
+      </c>
+      <c r="J4">
+        <v>155</v>
+      </c>
+      <c r="K4">
+        <v>39</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>93</v>
+      </c>
+      <c r="N4">
+        <v>410</v>
+      </c>
+      <c r="O4">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>346</v>
+      </c>
+      <c r="Q4">
+        <v>459</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>306</v>
+      </c>
+      <c r="D5">
+        <v>371</v>
+      </c>
+      <c r="E5">
+        <v>351</v>
+      </c>
+      <c r="F5">
+        <v>398</v>
+      </c>
+      <c r="G5">
+        <v>232</v>
+      </c>
+      <c r="H5">
+        <v>324</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>168</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>107</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>390</v>
+      </c>
+      <c r="O5">
+        <v>253</v>
+      </c>
+      <c r="P5">
+        <v>387</v>
+      </c>
+      <c r="Q5">
+        <v>331</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>376</v>
+      </c>
+      <c r="D6">
+        <v>460</v>
+      </c>
+      <c r="E6">
+        <v>472</v>
+      </c>
+      <c r="F6">
+        <v>342</v>
+      </c>
+      <c r="G6">
+        <v>391</v>
+      </c>
+      <c r="H6">
+        <v>328</v>
+      </c>
+      <c r="I6">
+        <v>79</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>96</v>
+      </c>
+      <c r="L6">
+        <v>126</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>187</v>
+      </c>
+      <c r="O6">
+        <v>289</v>
+      </c>
+      <c r="P6">
+        <v>224</v>
+      </c>
+      <c r="Q6">
+        <v>60</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>